--- a/BalanceSheet/HES_bal.xlsx
+++ b/BalanceSheet/HES_bal.xlsx
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="C4" s="0" t="n">
-        <v>44000000.0</v>
+        <v>378000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-62000000.0</v>
+        <v>422000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-130000000.0</v>
+        <v>360000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>31000000.0</v>
+        <v>230000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>261000000.0</v>
@@ -1833,16 +1833,16 @@
         </is>
       </c>
       <c r="C14" s="0" t="n">
-        <v>148000000.0</v>
+        <v>200000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-161000000.0</v>
+        <v>200000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-257000000.0</v>
+        <v>307000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-263000000.0</v>
+        <v>431000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>411000000.0</v>
@@ -2782,16 +2782,16 @@
         <v>29000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>34000000.0</v>
+        <v>283000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>8000000.0</v>
+        <v>249000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-10000000.0</v>
+        <v>241000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>-85000000.0</v>
+        <v>251000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>415000000.0</v>
@@ -4686,7 +4686,7 @@
         <v>6850000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>6387000000.0</v>
+        <v>6034000000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>4920000000.0</v>
@@ -4813,7 +4813,7 @@
         <v>8930000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>7932000000.0</v>
+        <v>7579000000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>6783000000.0</v>
